--- a/biology/Zoologie/Cuivré_écarlate/Cuivré_écarlate.xlsx
+++ b/biology/Zoologie/Cuivré_écarlate/Cuivré_écarlate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_%C3%A9carlate</t>
+          <t>Cuivré_écarlate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycaena hippothoe
 Le Cuivré écarlate ou Argus satiné changeant (Lycaena hippothoe) est une espèce paléarctique de lépidoptères 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_%C3%A9carlate</t>
+          <t>Cuivré_écarlate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cuivré écarlate est un petit papillon présentant un léger dimorphisme sexuel.  Le mâle est de couleur cuivre bordé de marron, avec des reflets violets pour la sous-espèce Lycaena hippothoe hippothoe. Les ailes antérieures de la femelle sont orange ornées de deux lignes, une submarginale et une postdiscale de points noirs ovales. Les ailes postérieures sont marron bordées d'une ligne submarginale de lunules orange.
 Le revers de l'aile antérieure est orange orné de points noirs cerclés de blanc et l'aile postérieure est beige grisé avec une bande submarginale orange bordée de petits points noirs.
 			Lycaena hippothoe ♂  MHNT
 			Lycaena hippothoe ♂   △
-Espèces proches ou ressemblantes
-Dans son aire de répartition, le Cuivré commun (Lycaena phlaeas) et le Cuivré mauvin (Lycaena alciphron).
 </t>
         </is>
       </c>
@@ -531,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_%C3%A9carlate</t>
+          <t>Cuivré_écarlate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération en juin juillet dans le nord et l'est de l'Europe, en deux générations en mai puis juillet août au sud de l'Europe[1].
-Il hiverne à l'état de jeune chenille.
-Plantes hôtes
-Ses plantes-hôtes sont Polygonum bistorta, Rumex acetosa et d'autres Rumex (Rumex hydrolapathum, Rumex confertus) en Russie[2],[1].
+          <t>Espèces proches ou ressemblantes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son aire de répartition, le Cuivré commun (Lycaena phlaeas) et le Cuivré mauvin (Lycaena alciphron).
 </t>
         </is>
       </c>
@@ -566,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_%C3%A9carlate</t>
+          <t>Cuivré_écarlate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,15 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Cuivré écarlate est présent dans le nord de l'Espagne et dans le centre de la France sous forme de deux isolats puis dans tout l'est de l'Europe à partir des Alpes et jusqu'au 62° N (mais absent du sud), puis en Russie, en Sibérie et jusqu'à la région du fleuve Amour[2],[1].
-En France il est présent dans les Pyrénées, puis tout l'est à partir du Massif Central et des Ardennes et tout particulièrement dans le Jura et les Alpes[3].
-Biotope
-C'est un lépidoptère des prairies humides.
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération en juin juillet dans le nord et l'est de l'Europe, en deux générations en mai puis juillet août au sud de l'Europe.
+Il hiverne à l'état de jeune chenille.
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_%C3%A9carlate</t>
+          <t>Cuivré_écarlate</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,52 +633,198 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes-hôtes sont Polygonum bistorta, Rumex acetosa et d'autres Rumex (Rumex hydrolapathum, Rumex confertus) en Russie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cuivré_écarlate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_%C3%A9carlate</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré écarlate est présent dans le nord de l'Espagne et dans le centre de la France sous forme de deux isolats puis dans tout l'est de l'Europe à partir des Alpes et jusqu'au 62° N (mais absent du sud), puis en Russie, en Sibérie et jusqu'à la région du fleuve Amour,.
+En France il est présent dans les Pyrénées, puis tout l'est à partir du Massif Central et des Ardennes et tout particulièrement dans le Jura et les Alpes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuivré_écarlate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_%C3%A9carlate</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un lépidoptère des prairies humides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuivré_écarlate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_%C3%A9carlate</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'espèce Lycaena hippothoe a été décrite par Carl von Linné en 1761.
 Synonymes : 
 Palaeochrysophanus hippothoe (Linnaeus, 1761)
 Chrysophanus eurydame Hoffmansegg, 1806
 Papilio eurybia Ochsenheimer, 1808
-Polyommatus stiberi Gerhard, 1853[4]
-Sous-espèces
-Lycaena hippothoe hippothoe présent en Europe et dans l'ouest de la Sibérie.
+Polyommatus stiberi Gerhard, 1853</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuivré_écarlate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_%C3%A9carlate</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lycaena hippothoe hippothoe présent en Europe et dans l'ouest de la Sibérie.
 Lycaena hippothoe amurensis (Staudinger, 1892)
 Lycaena hippothoe eurybia (Ochsenheimer, 1808) dans l'Altaï
-Lycaena hippothoe eurydame (Hoffmannsegg, 1806) dans les  Alpes, près de Genève[1].
+Lycaena hippothoe eurydame (Hoffmannsegg, 1806) dans les  Alpes, près de Genève.
 Lycaena hippothoe sumadiensis
-Lycaena hippothoe stiberi (Gerhard, 1853)  dans le nord de la Scandinavie et de l'Oural[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cuivr%C3%A9_%C3%A9carlate</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_%C3%A9carlate</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Lycaena hippothoe stiberi (Gerhard, 1853)  dans le nord de la Scandinavie et de l'Oural.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cuivré_écarlate</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_%C3%A9carlate</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>en français : le Cuivré écarlate, l'Argus satiné changeant
 en anglais : Purple-edged Copper
@@ -669,31 +833,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cuivr%C3%A9_%C3%A9carlate</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_%C3%A9carlate</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cuivré_écarlate</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_%C3%A9carlate</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier.[réf. nécessaire]
 </t>
